--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2012-至今)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2012-至今)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,6 +1826,135 @@
         <v>218.63</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10380.78</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2524.87</v>
+      </c>
+      <c r="D11" t="n">
+        <v>428.56</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>6246.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18562.59</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1944.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10887.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1504.11</v>
+      </c>
+      <c r="K11" t="n">
+        <v>279178.61</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1411.57</v>
+      </c>
+      <c r="M11" t="n">
+        <v>313.92</v>
+      </c>
+      <c r="N11" t="n">
+        <v>90.84</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2729.9</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5079.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>366.92</v>
+      </c>
+      <c r="R11" t="n">
+        <v>429.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6930.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2579.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>37713.49</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>3307.72</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5036.01</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13124.16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17332</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2138.65</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3740.34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3246.26</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4019.41</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3464.67</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>59174.41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13975.02</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6448.31</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3303.05</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>565.9400000000001</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>7290.48</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3373.46</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7650.86</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>136.83</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6111.96</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>5340.73</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>237.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
